--- a/students.xlsx
+++ b/students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.umandap\Desktop\event\event\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4376E1D3-7E30-49DC-8BFB-ADE82FC96A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC85437-579A-4AA0-BF7D-3FDD67B65E09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B51F5329-6B40-4910-8117-814D8B6FFC2B}"/>
   </bookViews>
@@ -60,40 +60,40 @@
     <t>P@ssw0rd123</t>
   </si>
   <si>
-    <t>dyrill</t>
-  </si>
-  <si>
-    <t>janlee</t>
-  </si>
-  <si>
-    <t>karl</t>
-  </si>
-  <si>
-    <t>dyrill.perido2</t>
-  </si>
-  <si>
-    <t>janlee.arcaya2</t>
-  </si>
-  <si>
-    <t>karl.gonzales2</t>
-  </si>
-  <si>
-    <t>perido2</t>
-  </si>
-  <si>
-    <t>arcaya2</t>
-  </si>
-  <si>
-    <t>gonzales2</t>
-  </si>
-  <si>
-    <t>dp2@gmail.com</t>
-  </si>
-  <si>
-    <t>ja2@gmail.com</t>
-  </si>
-  <si>
-    <t>kg2@gmail.com</t>
+    <t>anna.lee</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>al@gmail.com</t>
+  </si>
+  <si>
+    <t>romeo.teves</t>
+  </si>
+  <si>
+    <t>Romeo</t>
+  </si>
+  <si>
+    <t>Teves</t>
+  </si>
+  <si>
+    <t>shan.lara</t>
+  </si>
+  <si>
+    <t>sl@gmail.com</t>
+  </si>
+  <si>
+    <t>Shan</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>rt@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,19 +512,19 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -538,13 +538,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -552,19 +552,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4">
         <v>0</v>
